--- a/design/sample map.xlsx
+++ b/design/sample map.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Legend:</t>
   </si>
@@ -31,6 +31,15 @@
   </si>
   <si>
     <t>floor (different look than 0)</t>
+  </si>
+  <si>
+    <t>puzzle door</t>
+  </si>
+  <si>
+    <t>secret switch</t>
+  </si>
+  <si>
+    <t>puzzle switch</t>
   </si>
 </sst>
 </file>
@@ -392,20 +401,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F2">
         <v>1</v>
       </c>
@@ -419,7 +428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F3">
         <v>1</v>
       </c>
@@ -433,7 +442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F4">
         <v>1</v>
       </c>
@@ -447,7 +456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F5">
         <v>1</v>
       </c>
@@ -461,10 +470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F7" s="1">
         <v>1</v>
       </c>
@@ -472,19 +478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>1</v>
       </c>
@@ -510,19 +504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>1</v>
       </c>
@@ -548,19 +530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>3</v>
       </c>
@@ -586,19 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>1</v>
       </c>
@@ -624,12 +582,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -637,28 +595,669 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>7</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>5</v>
+      </c>
+      <c r="O30">
+        <v>6</v>
+      </c>
+      <c r="P30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>8</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>11</v>
+      </c>
+      <c r="M31">
+        <v>12</v>
+      </c>
+      <c r="N31">
+        <v>13</v>
+      </c>
+      <c r="O31">
+        <v>14</v>
+      </c>
+      <c r="P31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>16</v>
+      </c>
+      <c r="J32">
+        <v>17</v>
+      </c>
+      <c r="K32">
+        <v>18</v>
+      </c>
+      <c r="L32">
+        <v>19</v>
+      </c>
+      <c r="M32">
+        <v>20</v>
+      </c>
+      <c r="N32">
+        <v>21</v>
+      </c>
+      <c r="O32">
+        <v>22</v>
+      </c>
+      <c r="P32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>24</v>
+      </c>
+      <c r="J33">
+        <v>25</v>
+      </c>
+      <c r="K33">
+        <v>26</v>
+      </c>
+      <c r="L33">
+        <v>27</v>
+      </c>
+      <c r="M33">
+        <v>28</v>
+      </c>
+      <c r="N33">
+        <v>29</v>
+      </c>
+      <c r="O33">
+        <v>30</v>
+      </c>
+      <c r="P33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>32</v>
+      </c>
+      <c r="J34">
+        <v>33</v>
+      </c>
+      <c r="K34">
+        <v>34</v>
+      </c>
+      <c r="L34">
+        <v>35</v>
+      </c>
+      <c r="M34">
+        <v>36</v>
+      </c>
+      <c r="N34">
+        <v>37</v>
+      </c>
+      <c r="O34">
+        <v>38</v>
+      </c>
+      <c r="P34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>40</v>
+      </c>
+      <c r="J35">
+        <v>41</v>
+      </c>
+      <c r="K35">
+        <v>42</v>
+      </c>
+      <c r="L35">
+        <v>43</v>
+      </c>
+      <c r="M35">
+        <v>44</v>
+      </c>
+      <c r="N35">
+        <v>45</v>
+      </c>
+      <c r="O35">
+        <v>46</v>
+      </c>
+      <c r="P35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>48</v>
+      </c>
+      <c r="J36">
+        <v>49</v>
+      </c>
+      <c r="K36">
+        <v>50</v>
+      </c>
+      <c r="L36">
+        <v>51</v>
+      </c>
+      <c r="M36">
+        <v>52</v>
+      </c>
+      <c r="N36">
+        <v>53</v>
+      </c>
+      <c r="O36">
+        <v>54</v>
+      </c>
+      <c r="P36">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>56</v>
+      </c>
+      <c r="J37">
+        <v>57</v>
+      </c>
+      <c r="K37">
+        <v>58</v>
+      </c>
+      <c r="L37">
+        <v>59</v>
+      </c>
+      <c r="M37">
+        <v>60</v>
+      </c>
+      <c r="N37">
+        <v>61</v>
+      </c>
+      <c r="O37">
+        <v>62</v>
+      </c>
+      <c r="P37">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>64</v>
+      </c>
+      <c r="J38">
+        <v>65</v>
+      </c>
+      <c r="K38">
+        <v>66</v>
+      </c>
+      <c r="L38">
+        <v>67</v>
+      </c>
+      <c r="M38">
+        <v>68</v>
+      </c>
+      <c r="N38">
+        <v>69</v>
+      </c>
+      <c r="O38">
+        <v>70</v>
+      </c>
+      <c r="P38">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>72</v>
+      </c>
+      <c r="J39">
+        <v>73</v>
+      </c>
+      <c r="K39">
+        <v>74</v>
+      </c>
+      <c r="L39">
+        <v>75</v>
+      </c>
+      <c r="M39">
+        <v>76</v>
+      </c>
+      <c r="N39">
+        <v>77</v>
+      </c>
+      <c r="O39">
+        <v>78</v>
+      </c>
+      <c r="P39">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>80</v>
+      </c>
+      <c r="J40">
+        <v>81</v>
+      </c>
+      <c r="K40">
+        <v>82</v>
+      </c>
+      <c r="L40">
+        <v>83</v>
+      </c>
+      <c r="M40">
+        <v>84</v>
+      </c>
+      <c r="N40">
+        <v>85</v>
+      </c>
+      <c r="O40">
+        <v>86</v>
+      </c>
+      <c r="P40">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>88</v>
+      </c>
+      <c r="J41">
+        <v>89</v>
+      </c>
+      <c r="K41">
+        <v>90</v>
+      </c>
+      <c r="L41">
+        <v>91</v>
+      </c>
+      <c r="M41">
+        <v>92</v>
+      </c>
+      <c r="N41">
+        <v>93</v>
+      </c>
+      <c r="O41">
+        <v>94</v>
+      </c>
+      <c r="P41">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
